--- a/Controle_jubilee3d/analise.xlsx
+++ b/Controle_jubilee3d/analise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,6 +1058,1814 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>53</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>08/05/25  10:39:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>53</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>08/05/25  11:10:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>53</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>08/05/25  11:40:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>21</v>
+      </c>
+      <c r="C43" t="n">
+        <v>51</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>08/05/25  12:11:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>50</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>08/05/25  12:41:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>49</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>08/05/25  13:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>49</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>08/05/25  13:42:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>49</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>08/05/25  14:13:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>49</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>08/05/25  14:43:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>49</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>08/05/25  15:14:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>49</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>08/05/25  15:44:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>08/05/25  16:15:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>49</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>08/05/25  16:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>49</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>08/05/25  17:16:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>49</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>08/05/25  17:46:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>50</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>08/05/25  18:17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>50</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>08/05/25  18:47:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>51</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>08/05/25  19:18:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>51</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>08/05/25  19:48:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>51</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>08/05/25  20:19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>52</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>08/05/25  20:49:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>53</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>08/05/25  21:20:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>54</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>08/05/25  21:50:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C63" t="n">
+        <v>54</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>08/05/25  22:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C64" t="n">
+        <v>54</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>08/05/25  22:51:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>21</v>
+      </c>
+      <c r="C65" t="n">
+        <v>56</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>08/05/25  23:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>58</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>08/05/25  23:52:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>58</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>08/06/25  00:23:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>57</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>08/06/25  00:53:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>58</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>08/06/25  01:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>58</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>08/06/25  01:54:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>59</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>08/06/25  02:25:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>59</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>08/06/25  02:55:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>59</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>08/06/25  03:26:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>59</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>08/06/25  03:56:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>60</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>08/06/25  04:27:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>60</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>08/06/25  04:57:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>60</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>08/06/25  05:28:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>19</v>
+      </c>
+      <c r="C78" t="n">
+        <v>60</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>08/06/25  05:58:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>19</v>
+      </c>
+      <c r="C79" t="n">
+        <v>60</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>08/06/25  06:29:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>19</v>
+      </c>
+      <c r="C80" t="n">
+        <v>60</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>08/06/25  06:59:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>60</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>08/06/25  07:30:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C82" t="n">
+        <v>61</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>08/06/25  08:00:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C83" t="n">
+        <v>61</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>08/06/25  08:31:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C84" t="n">
+        <v>61</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>08/06/25  09:01:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C85" t="n">
+        <v>61</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>08/06/25  09:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>19</v>
+      </c>
+      <c r="C86" t="n">
+        <v>61</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>08/06/25  10:02:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>60</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>08/06/25  10:33:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C88" t="n">
+        <v>58</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>08/06/25  11:03:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>56</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>08/06/25  11:34:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>21</v>
+      </c>
+      <c r="C90" t="n">
+        <v>53</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>08/06/25  12:04:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>52</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>08/06/25  12:35:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>49</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>08/06/25  13:05:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C93" t="n">
+        <v>48</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>08/06/25  13:36:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>23</v>
+      </c>
+      <c r="C94" t="n">
+        <v>48</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>08/06/25  14:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>47</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>08/06/25  14:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>46</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>08/06/25  15:08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>44</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>08/06/25  15:38:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C98" t="n">
+        <v>44</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>08/06/25  16:09:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>44</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>08/06/25  16:39:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>43</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>08/06/25  17:10:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>44</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>08/06/25  17:40:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C102" t="n">
+        <v>46</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>08/06/25  18:11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>46</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>08/06/25  18:41:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>47</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>08/06/25  19:12:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C105" t="n">
+        <v>47</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>08/06/25  19:42:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>23</v>
+      </c>
+      <c r="C106" t="n">
+        <v>49</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>08/06/25  20:13:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>49</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>08/06/25  20:43:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>50</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>08/06/25  21:14:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>51</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>08/06/25  21:44:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>52</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>08/06/25  22:15:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C111" t="n">
+        <v>53</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>08/06/25  22:45:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>21</v>
+      </c>
+      <c r="C112" t="n">
+        <v>54</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>08/06/25  23:24:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>21</v>
+      </c>
+      <c r="C113" t="n">
+        <v>57</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>08/07/25  00:44:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>57</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>08/07/25  07:56:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>65</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>08/07/25  08:26:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>65</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>08/07/25  08:57:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C117" t="n">
+        <v>63</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>08/07/25  09:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C118" t="n">
+        <v>60</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>08/07/25  10:02:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>54</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>08/07/25  11:04:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>54</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>08/07/25  15:16:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C121" t="n">
+        <v>38</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>08/07/25  15:46:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>38</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>08/07/25  16:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>38</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>08/07/25  16:48:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>38</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>08/07/25  17:18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>37</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>08/07/25  17:49:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>38</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>08/07/25  18:19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>38</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>08/07/25  18:50:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>38</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>08/07/25  19:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>38</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>08/07/25  19:51:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>38</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>08/07/25  20:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>39</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>08/07/25  20:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>39</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>08/07/25  21:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>40</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>08/07/25  21:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>40</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>08/07/25  22:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>40</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>08/07/25  22:54:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>41</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>08/07/25  23:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>41</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>08/07/25  23:55:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>42</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>08/08/25  00:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>42</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>08/08/25  00:56:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>42</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>08/08/25  01:26:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>23</v>
+      </c>
+      <c r="C141" t="n">
+        <v>43</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>08/08/25  01:57:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>23</v>
+      </c>
+      <c r="C142" t="n">
+        <v>43</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>08/08/25  02:27:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>44</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>08/08/25  02:58:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>44</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>08/08/25  03:28:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>45</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>08/08/25  03:59:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>45</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>08/08/25  04:29:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>46</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>08/08/25  05:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>46</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>08/08/25  05:30:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>45</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>08/08/25  06:01:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>46</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>08/08/25  06:31:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>46</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>08/08/25  07:02:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>47</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>08/08/25  07:32:40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
